--- a/Data_clean/MCAS/Estados_US/Edos_USA_2024/TEXAS_2024.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2024/TEXAS_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2079"/>
+  <dimension ref="A1:D2073"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C11">
@@ -517,7 +517,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C12">
@@ -543,7 +543,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C14">
@@ -600,7 +600,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C18">
@@ -652,7 +652,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C22">
@@ -722,7 +722,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C27">
@@ -883,7 +883,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C39">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C44">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C48">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C50">
@@ -1148,7 +1148,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C59">
@@ -1226,7 +1226,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C65">
@@ -1616,7 +1616,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C95">
@@ -1629,7 +1629,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C96">
@@ -1746,7 +1746,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C105">
@@ -1902,7 +1902,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C117">
@@ -1915,7 +1915,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C118">
@@ -1954,7 +1954,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Santiago el Pinar</t>
+          <t>Santiago El Pinar</t>
         </is>
       </c>
       <c r="C121">
@@ -2331,7 +2331,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C150">
@@ -2557,7 +2557,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C167">
@@ -2700,7 +2700,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C178">
@@ -2752,7 +2752,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C182">
@@ -3077,7 +3077,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C207">
@@ -3090,7 +3090,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C208">
@@ -3103,7 +3103,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C209">
@@ -3207,7 +3207,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C217">
@@ -3220,7 +3220,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C218">
@@ -3233,7 +3233,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3277,7 +3277,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C222">
@@ -3459,7 +3459,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C236">
@@ -3472,7 +3472,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Coahuila de Zaragoza</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3893,7 +3893,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C269">
@@ -3984,7 +3984,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C276">
@@ -4132,7 +4132,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C287">
@@ -4145,7 +4145,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C288">
@@ -4189,7 +4189,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C291">
@@ -4384,7 +4384,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C306">
@@ -4475,7 +4475,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C313">
@@ -4527,7 +4527,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C317">
@@ -4540,7 +4540,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C318">
@@ -4553,7 +4553,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C319">
@@ -4566,7 +4566,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C320">
@@ -4683,7 +4683,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C329">
@@ -4696,12 +4696,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C330">
@@ -4740,7 +4740,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C333">
@@ -4753,7 +4753,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C334">
@@ -4766,7 +4766,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C335">
@@ -4857,7 +4857,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C342">
@@ -4948,7 +4948,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C349">
@@ -5013,7 +5013,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C354">
@@ -5117,7 +5117,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C362">
@@ -5221,7 +5221,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C370">
@@ -5234,7 +5234,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C371">
@@ -5455,7 +5455,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C388">
@@ -5624,7 +5624,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C401">
@@ -5637,7 +5637,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C402">
@@ -5650,7 +5650,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>San José del Rincón</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C403">
@@ -5663,7 +5663,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C404">
@@ -5689,7 +5689,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C406">
@@ -5715,7 +5715,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C408">
@@ -5845,7 +5845,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C418">
@@ -5858,7 +5858,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C419">
@@ -6040,7 +6040,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C433">
@@ -6131,7 +6131,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C440">
@@ -6144,7 +6144,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C441">
@@ -6183,7 +6183,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C444">
@@ -6196,7 +6196,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C445">
@@ -6300,7 +6300,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C453">
@@ -6344,7 +6344,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C456">
@@ -6357,7 +6357,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C457">
@@ -6474,7 +6474,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C466">
@@ -6526,7 +6526,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C470">
@@ -6617,7 +6617,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C477">
@@ -6682,7 +6682,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C482">
@@ -6708,7 +6708,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C484">
@@ -6734,7 +6734,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C486">
@@ -6747,7 +6747,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C487">
@@ -6773,7 +6773,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C489">
@@ -6799,7 +6799,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C491">
@@ -6864,7 +6864,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C496">
@@ -6929,7 +6929,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C501">
@@ -6947,7 +6947,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C502">
@@ -6986,7 +6986,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C505">
@@ -6999,7 +6999,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C506">
@@ -7051,7 +7051,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C510">
@@ -7077,7 +7077,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C512">
@@ -7090,7 +7090,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C513">
@@ -7129,7 +7129,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C516">
@@ -7142,7 +7142,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C517">
@@ -7155,7 +7155,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C518">
@@ -7168,7 +7168,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C519">
@@ -7233,7 +7233,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C524">
@@ -7246,7 +7246,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C525">
@@ -7298,7 +7298,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C529">
@@ -7311,7 +7311,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C530">
@@ -7402,7 +7402,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C537">
@@ -7415,7 +7415,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C538">
@@ -7441,7 +7441,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C540">
@@ -7454,7 +7454,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>José Joaquín de Herrera</t>
+          <t>José Joaquín De Herrera</t>
         </is>
       </c>
       <c r="C541">
@@ -7493,7 +7493,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C544">
@@ -7571,7 +7571,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C550">
@@ -7714,7 +7714,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C561">
@@ -7753,7 +7753,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C564">
@@ -7779,7 +7779,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C566">
@@ -7831,7 +7831,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C570">
@@ -7844,7 +7844,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C571">
@@ -7870,7 +7870,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C573">
@@ -7935,7 +7935,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C578">
@@ -7974,7 +7974,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C581">
@@ -8031,7 +8031,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C585">
@@ -8122,7 +8122,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C592">
@@ -8135,7 +8135,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C593">
@@ -8213,7 +8213,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C599">
@@ -8291,7 +8291,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C605">
@@ -8343,7 +8343,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C609">
@@ -8395,7 +8395,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C613">
@@ -8486,7 +8486,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C620">
@@ -8499,7 +8499,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C621">
@@ -8512,7 +8512,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C622">
@@ -8525,7 +8525,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C623">
@@ -8551,7 +8551,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C625">
@@ -8564,7 +8564,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C626">
@@ -8577,7 +8577,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C627">
@@ -8616,7 +8616,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C630">
@@ -8694,7 +8694,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C636">
@@ -8707,7 +8707,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C637">
@@ -8759,7 +8759,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C641">
@@ -8785,7 +8785,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C643">
@@ -8798,7 +8798,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C644">
@@ -8837,7 +8837,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C647">
@@ -8954,7 +8954,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C656">
@@ -8967,7 +8967,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C657">
@@ -8980,7 +8980,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C658">
@@ -9032,7 +9032,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C662">
@@ -9045,7 +9045,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C663">
@@ -9084,7 +9084,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C666">
@@ -9115,7 +9115,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C668">
@@ -9128,7 +9128,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C669">
@@ -9219,7 +9219,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C676">
@@ -9245,7 +9245,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C678">
@@ -9323,7 +9323,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C684">
@@ -9414,7 +9414,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C691">
@@ -9427,7 +9427,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C692">
@@ -9557,7 +9557,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C702">
@@ -9635,7 +9635,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C708">
@@ -9661,7 +9661,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C710">
@@ -9674,7 +9674,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C711">
@@ -9726,7 +9726,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C715">
@@ -9804,7 +9804,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C721">
@@ -9817,7 +9817,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C722">
@@ -9921,7 +9921,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C730">
@@ -9986,7 +9986,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C735">
@@ -9999,7 +9999,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C736">
@@ -10038,7 +10038,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C739">
@@ -10051,7 +10051,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C740">
@@ -10103,7 +10103,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C744">
@@ -10116,7 +10116,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C745">
@@ -10142,7 +10142,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C747">
@@ -10155,7 +10155,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C748">
@@ -10168,7 +10168,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C749">
@@ -10207,7 +10207,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C752">
@@ -10220,7 +10220,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C753">
@@ -10285,7 +10285,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C758">
@@ -10298,7 +10298,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C759">
@@ -10337,7 +10337,7 @@
     <row r="762">
       <c r="B762" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C762">
@@ -10350,7 +10350,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C763">
@@ -10493,7 +10493,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C774">
@@ -10506,7 +10506,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C775">
@@ -10519,7 +10519,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C776">
@@ -10532,7 +10532,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C777">
@@ -10597,7 +10597,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C782">
@@ -10610,7 +10610,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C783">
@@ -10649,7 +10649,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C786">
@@ -10675,7 +10675,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C788">
@@ -10688,7 +10688,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C789">
@@ -10701,7 +10701,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C790">
@@ -10714,7 +10714,7 @@
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>Michoacán de Ocampo</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
@@ -11005,7 +11005,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C813">
@@ -11031,7 +11031,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C815">
@@ -11928,7 +11928,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C884">
@@ -12214,7 +12214,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C906">
@@ -12297,7 +12297,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C912">
@@ -12466,7 +12466,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C925">
@@ -12544,7 +12544,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C931">
@@ -12570,7 +12570,7 @@
     <row r="933">
       <c r="B933" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C933">
@@ -12674,7 +12674,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C941">
@@ -12687,7 +12687,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C942">
@@ -12731,7 +12731,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C945">
@@ -12744,7 +12744,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C946">
@@ -12796,7 +12796,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C950">
@@ -12887,7 +12887,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C957">
@@ -12965,7 +12965,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C963">
@@ -13113,7 +13113,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C974">
@@ -13386,7 +13386,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C995">
@@ -13477,7 +13477,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C1002">
@@ -13594,7 +13594,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C1011">
@@ -13672,7 +13672,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1017">
@@ -13690,7 +13690,7 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C1018">
@@ -13755,7 +13755,7 @@
     <row r="1023">
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C1023">
@@ -13820,7 +13820,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C1028">
@@ -13833,7 +13833,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C1029">
@@ -13859,7 +13859,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C1031">
@@ -13885,7 +13885,7 @@
     <row r="1033">
       <c r="B1033" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C1033">
@@ -13924,7 +13924,7 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C1036">
@@ -13950,7 +13950,7 @@
     <row r="1038">
       <c r="B1038" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C1038">
@@ -13976,7 +13976,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C1040">
@@ -13989,7 +13989,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C1041">
@@ -14002,7 +14002,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C1042">
@@ -14015,7 +14015,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C1043">
@@ -14028,7 +14028,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C1044">
@@ -14041,7 +14041,7 @@
     <row r="1045">
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C1045">
@@ -14054,7 +14054,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C1046">
@@ -14067,7 +14067,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Huajuapan de León</t>
+          <t>Huajuapan De León</t>
         </is>
       </c>
       <c r="C1047">
@@ -14080,7 +14080,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C1048">
@@ -14106,7 +14106,7 @@
     <row r="1050">
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C1050">
@@ -14210,7 +14210,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C1058">
@@ -14236,7 +14236,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C1060">
@@ -14262,7 +14262,7 @@
     <row r="1062">
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C1062">
@@ -14288,7 +14288,7 @@
     <row r="1064">
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C1064">
@@ -14301,7 +14301,7 @@
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C1065">
@@ -14314,7 +14314,7 @@
     <row r="1066">
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C1066">
@@ -14327,7 +14327,7 @@
     <row r="1067">
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C1067">
@@ -14353,7 +14353,7 @@
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C1069">
@@ -14509,7 +14509,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C1081">
@@ -14561,7 +14561,7 @@
     <row r="1085">
       <c r="B1085" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C1085">
@@ -14652,7 +14652,7 @@
     <row r="1092">
       <c r="B1092" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C1092">
@@ -14678,7 +14678,7 @@
     <row r="1094">
       <c r="B1094" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C1094">
@@ -14821,7 +14821,7 @@
     <row r="1105">
       <c r="B1105" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C1105">
@@ -14951,7 +14951,7 @@
     <row r="1115">
       <c r="B1115" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C1115">
@@ -14964,7 +14964,7 @@
     <row r="1116">
       <c r="B1116" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C1116">
@@ -15029,7 +15029,7 @@
     <row r="1121">
       <c r="B1121" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C1121">
@@ -15328,7 +15328,7 @@
     <row r="1144">
       <c r="B1144" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C1144">
@@ -15341,7 +15341,7 @@
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1145">
@@ -15484,7 +15484,7 @@
     <row r="1156">
       <c r="B1156" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C1156">
@@ -15679,7 +15679,7 @@
     <row r="1171">
       <c r="B1171" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1171">
@@ -15692,7 +15692,7 @@
     <row r="1172">
       <c r="B1172" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C1172">
@@ -15744,7 +15744,7 @@
     <row r="1176">
       <c r="B1176" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C1176">
@@ -16030,7 +16030,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1198">
@@ -16043,7 +16043,7 @@
     <row r="1199">
       <c r="B1199" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C1199">
@@ -16056,7 +16056,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1200">
@@ -16290,7 +16290,7 @@
     <row r="1218">
       <c r="B1218" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1218">
@@ -16368,7 +16368,7 @@
     <row r="1224">
       <c r="B1224" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1224">
@@ -16511,7 +16511,7 @@
     <row r="1235">
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1235">
@@ -17265,7 +17265,7 @@
     <row r="1293">
       <c r="B1293" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1293">
@@ -17369,7 +17369,7 @@
     <row r="1301">
       <c r="B1301" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1301">
@@ -17395,7 +17395,7 @@
     <row r="1303">
       <c r="B1303" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1303">
@@ -17408,7 +17408,7 @@
     <row r="1304">
       <c r="B1304" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1304">
@@ -17421,7 +17421,7 @@
     <row r="1305">
       <c r="B1305" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C1305">
@@ -17434,7 +17434,7 @@
     <row r="1306">
       <c r="B1306" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1306">
@@ -17447,7 +17447,7 @@
     <row r="1307">
       <c r="B1307" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1307">
@@ -17460,7 +17460,7 @@
     <row r="1308">
       <c r="B1308" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1308">
@@ -17525,7 +17525,7 @@
     <row r="1313">
       <c r="B1313" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1313">
@@ -17538,7 +17538,7 @@
     <row r="1314">
       <c r="B1314" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C1314">
@@ -17551,7 +17551,7 @@
     <row r="1315">
       <c r="B1315" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C1315">
@@ -17564,7 +17564,7 @@
     <row r="1316">
       <c r="B1316" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1316">
@@ -17577,7 +17577,7 @@
     <row r="1317">
       <c r="B1317" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1317">
@@ -17590,7 +17590,7 @@
     <row r="1318">
       <c r="B1318" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1318">
@@ -17603,7 +17603,7 @@
     <row r="1319">
       <c r="B1319" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C1319">
@@ -17616,7 +17616,7 @@
     <row r="1320">
       <c r="B1320" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1320">
@@ -17629,7 +17629,7 @@
     <row r="1321">
       <c r="B1321" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1321">
@@ -17668,7 +17668,7 @@
     <row r="1324">
       <c r="B1324" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1324">
@@ -17681,7 +17681,7 @@
     <row r="1325">
       <c r="B1325" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1325">
@@ -17972,7 +17972,7 @@
     <row r="1347">
       <c r="B1347" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1347">
@@ -18037,7 +18037,7 @@
     <row r="1352">
       <c r="B1352" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1352">
@@ -18180,7 +18180,7 @@
     <row r="1363">
       <c r="B1363" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1363">
@@ -18297,7 +18297,7 @@
     <row r="1372">
       <c r="B1372" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C1372">
@@ -18349,7 +18349,7 @@
     <row r="1376">
       <c r="B1376" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1376">
@@ -18362,7 +18362,7 @@
     <row r="1377">
       <c r="B1377" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1377">
@@ -18583,7 +18583,7 @@
     <row r="1394">
       <c r="B1394" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1394">
@@ -18596,7 +18596,7 @@
     <row r="1395">
       <c r="B1395" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1395">
@@ -18648,7 +18648,7 @@
     <row r="1399">
       <c r="B1399" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1399">
@@ -18674,7 +18674,7 @@
     <row r="1401">
       <c r="B1401" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1401">
@@ -18713,7 +18713,7 @@
     <row r="1404">
       <c r="B1404" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1404">
@@ -18830,7 +18830,7 @@
     <row r="1413">
       <c r="B1413" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1413">
@@ -18960,7 +18960,7 @@
     <row r="1423">
       <c r="B1423" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1423">
@@ -19090,7 +19090,7 @@
     <row r="1433">
       <c r="B1433" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1433">
@@ -19259,7 +19259,7 @@
     <row r="1446">
       <c r="B1446" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1446">
@@ -19324,7 +19324,7 @@
     <row r="1451">
       <c r="B1451" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1451">
@@ -19337,7 +19337,7 @@
     <row r="1452">
       <c r="B1452" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1452">
@@ -19441,7 +19441,7 @@
     <row r="1460">
       <c r="B1460" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1460">
@@ -19545,7 +19545,7 @@
     <row r="1468">
       <c r="B1468" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1468">
@@ -19558,7 +19558,7 @@
     <row r="1469">
       <c r="B1469" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1469">
@@ -19571,7 +19571,7 @@
     <row r="1470">
       <c r="B1470" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1470">
@@ -19636,7 +19636,7 @@
     <row r="1475">
       <c r="B1475" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1475">
@@ -19662,7 +19662,7 @@
     <row r="1477">
       <c r="B1477" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1477">
@@ -19675,7 +19675,7 @@
     <row r="1478">
       <c r="B1478" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1478">
@@ -19688,7 +19688,7 @@
     <row r="1479">
       <c r="B1479" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1479">
@@ -19753,7 +19753,7 @@
     <row r="1484">
       <c r="B1484" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1484">
@@ -20013,7 +20013,7 @@
     <row r="1504">
       <c r="B1504" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1504">
@@ -20195,7 +20195,7 @@
     <row r="1518">
       <c r="B1518" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1518">
@@ -20213,7 +20213,7 @@
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1519">
@@ -20239,7 +20239,7 @@
     <row r="1521">
       <c r="B1521" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1521">
@@ -20330,7 +20330,7 @@
     <row r="1528">
       <c r="B1528" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1528">
@@ -20343,7 +20343,7 @@
     <row r="1529">
       <c r="B1529" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1529">
@@ -20382,7 +20382,7 @@
     <row r="1532">
       <c r="B1532" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1532">
@@ -20421,7 +20421,7 @@
     <row r="1535">
       <c r="B1535" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1535">
@@ -20460,7 +20460,7 @@
     <row r="1538">
       <c r="B1538" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1538">
@@ -20595,7 +20595,7 @@
     <row r="1548">
       <c r="B1548" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1548">
@@ -20652,7 +20652,7 @@
     <row r="1552">
       <c r="B1552" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1552">
@@ -20665,7 +20665,7 @@
     <row r="1553">
       <c r="B1553" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1553">
@@ -20717,7 +20717,7 @@
     <row r="1557">
       <c r="B1557" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C1557">
@@ -20769,7 +20769,7 @@
     <row r="1561">
       <c r="B1561" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1561">
@@ -20912,7 +20912,7 @@
     <row r="1572">
       <c r="B1572" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1572">
@@ -20990,7 +20990,7 @@
     <row r="1578">
       <c r="B1578" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1578">
@@ -21068,7 +21068,7 @@
     <row r="1584">
       <c r="B1584" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1584">
@@ -21094,7 +21094,7 @@
     <row r="1586">
       <c r="B1586" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1586">
@@ -21198,7 +21198,7 @@
     <row r="1594">
       <c r="B1594" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1594">
@@ -21276,7 +21276,7 @@
     <row r="1600">
       <c r="B1600" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1600">
@@ -21289,7 +21289,7 @@
     <row r="1601">
       <c r="B1601" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1601">
@@ -21302,7 +21302,7 @@
     <row r="1602">
       <c r="B1602" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1602">
@@ -21315,7 +21315,7 @@
     <row r="1603">
       <c r="B1603" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1603">
@@ -21328,7 +21328,7 @@
     <row r="1604">
       <c r="B1604" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1604">
@@ -21341,7 +21341,7 @@
     <row r="1605">
       <c r="B1605" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1605">
@@ -21380,7 +21380,7 @@
     <row r="1608">
       <c r="B1608" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1608">
@@ -21645,7 +21645,7 @@
     <row r="1628">
       <c r="B1628" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1628">
@@ -21910,7 +21910,7 @@
     <row r="1648">
       <c r="B1648" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1648">
@@ -22001,7 +22001,7 @@
     <row r="1655">
       <c r="B1655" t="inlineStr">
         <is>
-          <t>San Miguel de Horcasitas</t>
+          <t>San Miguel De Horcasitas</t>
         </is>
       </c>
       <c r="C1655">
@@ -22014,7 +22014,7 @@
     <row r="1656">
       <c r="B1656" t="inlineStr">
         <is>
-          <t>San Pedro de la Cueva</t>
+          <t>San Pedro De La Cueva</t>
         </is>
       </c>
       <c r="C1656">
@@ -22053,7 +22053,7 @@
     <row r="1659">
       <c r="B1659" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1659">
@@ -22201,7 +22201,7 @@
     <row r="1670">
       <c r="B1670" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1670">
@@ -22305,7 +22305,7 @@
     <row r="1678">
       <c r="B1678" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1678">
@@ -22804,7 +22804,7 @@
     <row r="1716">
       <c r="B1716" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1716">
@@ -22895,7 +22895,7 @@
     <row r="1723">
       <c r="B1723" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1723">
@@ -22913,7 +22913,7 @@
       </c>
       <c r="B1724" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1724">
@@ -22926,7 +22926,7 @@
     <row r="1725">
       <c r="B1725" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1725">
@@ -22939,7 +22939,7 @@
     <row r="1726">
       <c r="B1726" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1726">
@@ -23030,7 +23030,7 @@
     <row r="1733">
       <c r="B1733" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1733">
@@ -23121,7 +23121,7 @@
     <row r="1740">
       <c r="B1740" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1740">
@@ -23173,7 +23173,7 @@
     <row r="1744">
       <c r="B1744" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1744">
@@ -23186,7 +23186,7 @@
     <row r="1745">
       <c r="B1745" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1745">
@@ -23199,7 +23199,7 @@
     <row r="1746">
       <c r="B1746" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1746">
@@ -23238,7 +23238,7 @@
     <row r="1749">
       <c r="B1749" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1749">
@@ -23290,7 +23290,7 @@
     <row r="1753">
       <c r="B1753" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1753">
@@ -23303,7 +23303,7 @@
     <row r="1754">
       <c r="B1754" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1754">
@@ -23368,7 +23368,7 @@
     <row r="1759">
       <c r="B1759" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1759">
@@ -23394,7 +23394,7 @@
     <row r="1761">
       <c r="B1761" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1761">
@@ -23550,7 +23550,7 @@
     <row r="1773">
       <c r="B1773" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1773">
@@ -23563,7 +23563,7 @@
     <row r="1774">
       <c r="A1774" t="inlineStr">
         <is>
-          <t>Veracruz de Ignacio de la Llave</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B1774" t="inlineStr">
@@ -23672,7 +23672,7 @@
     <row r="1782">
       <c r="B1782" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1782">
@@ -23724,7 +23724,7 @@
     <row r="1786">
       <c r="B1786" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1786">
@@ -23880,7 +23880,7 @@
     <row r="1798">
       <c r="B1798" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1798">
@@ -23906,7 +23906,7 @@
     <row r="1800">
       <c r="B1800" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1800">
@@ -23958,7 +23958,7 @@
     <row r="1804">
       <c r="B1804" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1804">
@@ -23984,7 +23984,7 @@
     <row r="1806">
       <c r="B1806" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1806">
@@ -24088,7 +24088,7 @@
     <row r="1814">
       <c r="B1814" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1814">
@@ -24244,7 +24244,7 @@
     <row r="1826">
       <c r="B1826" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1826">
@@ -24491,7 +24491,7 @@
     <row r="1845">
       <c r="B1845" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1845">
@@ -24504,7 +24504,7 @@
     <row r="1846">
       <c r="B1846" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1846">
@@ -24556,7 +24556,7 @@
     <row r="1850">
       <c r="B1850" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1850">
@@ -24569,7 +24569,7 @@
     <row r="1851">
       <c r="B1851" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1851">
@@ -24582,7 +24582,7 @@
     <row r="1852">
       <c r="B1852" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1852">
@@ -24712,7 +24712,7 @@
     <row r="1862">
       <c r="B1862" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1862">
@@ -24790,7 +24790,7 @@
     <row r="1868">
       <c r="B1868" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1868">
@@ -24803,7 +24803,7 @@
     <row r="1869">
       <c r="B1869" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1869">
@@ -24868,7 +24868,7 @@
     <row r="1874">
       <c r="B1874" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1874">
@@ -24920,7 +24920,7 @@
     <row r="1878">
       <c r="B1878" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1878">
@@ -24972,7 +24972,7 @@
     <row r="1882">
       <c r="B1882" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1882">
@@ -24998,7 +24998,7 @@
     <row r="1884">
       <c r="B1884" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1884">
@@ -25141,7 +25141,7 @@
     <row r="1895">
       <c r="B1895" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1895">
@@ -25180,7 +25180,7 @@
     <row r="1898">
       <c r="B1898" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1898">
@@ -25193,7 +25193,7 @@
     <row r="1899">
       <c r="B1899" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1899">
@@ -25245,7 +25245,7 @@
     <row r="1903">
       <c r="B1903" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1903">
@@ -25401,7 +25401,7 @@
     <row r="1915">
       <c r="B1915" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1915">
@@ -25453,7 +25453,7 @@
     <row r="1919">
       <c r="B1919" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1919">
@@ -25557,7 +25557,7 @@
     <row r="1927">
       <c r="B1927" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1927">
@@ -25804,7 +25804,7 @@
     <row r="1946">
       <c r="B1946" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1946">
@@ -25999,7 +25999,7 @@
     <row r="1961">
       <c r="B1961" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1961">
@@ -26155,7 +26155,7 @@
     <row r="1973">
       <c r="B1973" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1973">
@@ -26168,7 +26168,7 @@
     <row r="1974">
       <c r="B1974" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1974">
@@ -26194,7 +26194,7 @@
     <row r="1976">
       <c r="B1976" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C1976">
@@ -26680,7 +26680,7 @@
     <row r="2013">
       <c r="B2013" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2013">
@@ -26763,7 +26763,7 @@
     <row r="2019">
       <c r="B2019" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C2019">
@@ -26789,7 +26789,7 @@
     <row r="2021">
       <c r="B2021" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C2021">
@@ -26828,7 +26828,7 @@
     <row r="2024">
       <c r="B2024" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C2024">
@@ -26971,7 +26971,7 @@
     <row r="2035">
       <c r="B2035" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C2035">
@@ -27062,7 +27062,7 @@
     <row r="2042">
       <c r="B2042" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C2042">
@@ -27127,7 +27127,7 @@
     <row r="2047">
       <c r="B2047" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C2047">
@@ -27140,7 +27140,7 @@
     <row r="2048">
       <c r="B2048" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C2048">
@@ -27153,7 +27153,7 @@
     <row r="2049">
       <c r="B2049" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C2049">
@@ -27296,7 +27296,7 @@
     <row r="2060">
       <c r="B2060" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C2060">
@@ -27309,7 +27309,7 @@
     <row r="2061">
       <c r="B2061" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C2061">
@@ -27335,7 +27335,7 @@
     <row r="2063">
       <c r="B2063" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C2063">
@@ -27413,7 +27413,7 @@
     <row r="2069">
       <c r="B2069" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C2069">
@@ -27452,7 +27452,7 @@
     <row r="2072">
       <c r="B2072" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2072">
@@ -27465,7 +27465,7 @@
     <row r="2073">
       <c r="A2073" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C2073">
@@ -27473,41 +27473,6 @@
       </c>
       <c r="D2073">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2075">
-      <c r="A2075" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 808,027</t>
-        </is>
-      </c>
-    </row>
-    <row r="2076">
-      <c r="A2076" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2077">
-      <c r="A2077" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="2078">
-      <c r="A2078" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2079">
-      <c r="A2079" t="inlineStr">
-        <is>
-          <t>Junio de 2025</t>
-        </is>
       </c>
     </row>
   </sheetData>
